--- a/exam.xlsx
+++ b/exam.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Athi River Timetable " sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Athi" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Nairobi Day Timetable" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Nairobi Evening Timetable" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Course offerings - Athi River " sheetId="4" state="visible" r:id="rId5"/>
@@ -9035,21 +9035,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4008097165992"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.587044534413"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8947368421053"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3603238866397"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.0728744939271"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.6882591093117"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.1821862348178"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.753036437247"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.8744939271255"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="26" min="14" style="0" width="7.21862348178138"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8947368421053"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0728744939271"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9716599190283"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5465587044534"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.2388663967611"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.4898785425101"/>
+    <col collapsed="false" hidden="false" max="26" min="14" style="0" width="7.34008097165992"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11355,22 +11354,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4048582995951"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2267206477733"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4817813765182"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1619433198381"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6315789473684"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6113360323887"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2388663967611"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.2631578947368"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.3603238866397"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.4696356275304"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.4048582995951"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7773279352227"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7327935222672"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8744939271255"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.0971659919028"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.2631578947368"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4817813765182"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.5060728744939"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6113360323887"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13158,18 +13156,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8097165991903"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9514170040486"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8097165991903"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.66801619433198"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6113360323887"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.9392712550607"/>
-    <col collapsed="false" hidden="false" max="26" min="11" style="0" width="7.21862348178138"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4817813765182"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1821862348178"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4453441295547"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1821862348178"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.78947368421053"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.1578947368421"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="26" min="11" style="0" width="7.34008097165992"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15002,14 +14999,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.8259109311741"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.59109311740891"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.21862348178138"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3684210526316"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8056680161943"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.71255060728745"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.34008097165992"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21961,14 +21957,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.21862348178138"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.34008097165992"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3603238866397"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.21862348178138"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.34008097165992"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3036437246964"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.663967611336"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.46963562753037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9716599190283"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.34008097165992"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26136,12 +26131,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4048582995951"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.0364372469636"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="7.21862348178138"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.5222672064777"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="7.34008097165992"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28651,13 +28646,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1821862348178"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.7287449392713"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.4412955465587"/>
-    <col collapsed="false" hidden="false" max="27" min="6" style="0" width="7.21862348178138"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5465587044534"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3684210526316"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.582995951417"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.2995951417004"/>
+    <col collapsed="false" hidden="false" max="27" min="6" style="0" width="7.34008097165992"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/exam.xlsx
+++ b/exam.xlsx
@@ -9035,20 +9035,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.06072874493927"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8947368421053"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0728744939271"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.06072874493927"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.2591093117409"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9716599190283"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5465587044534"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.2388663967611"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.4898785425101"/>
-    <col collapsed="false" hidden="false" max="26" min="14" style="0" width="7.34008097165992"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8947368421053"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3603238866397"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.0728744939271"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.1821862348178"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.753036437247"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="26" min="14" style="0" width="7.21862348178138"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="15.668016194332"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11345,30 +11346,31 @@
   <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
       <selection pane="bottomRight" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.4696356275304"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.4048582995951"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7773279352227"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7327935222672"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8744939271255"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.0971659919028"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.2631578947368"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4817813765182"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.5060728744939"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.6113360323887"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4048582995951"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2267206477733"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4817813765182"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1619433198381"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6315789473684"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6113360323887"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0202429149798"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.2388663967611"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.2631578947368"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.3603238866397"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="15.668016194332"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13156,17 +13158,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4817813765182"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1821862348178"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.4453441295547"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.1821862348178"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.78947368421053"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.0971659919028"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.1578947368421"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="26" min="11" style="0" width="7.34008097165992"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9514170040486"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.66801619433198"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6113360323887"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.9392712550607"/>
+    <col collapsed="false" hidden="false" max="26" min="11" style="0" width="7.21862348178138"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="15.668016194332"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14999,13 +15002,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8744939271255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8056680161943"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0607287449393"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.34008097165992"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.8259109311741"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.59109311740891"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.21862348178138"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="15.668016194332"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21957,13 +21961,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.34008097165992"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3036437246964"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.663967611336"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.46963562753037"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.9716599190283"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.34008097165992"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.21862348178138"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.0526315789474"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.34008097165992"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.3603238866397"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.21862348178138"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="15.668016194332"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26131,12 +26136,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.5222672064777"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="7.34008097165992"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4048582995951"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.0364372469636"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="7.21862348178138"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="15.668016194332"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28646,12 +28651,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5465587044534"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.582995951417"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.2995951417004"/>
-    <col collapsed="false" hidden="false" max="27" min="6" style="0" width="7.34008097165992"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1821862348178"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.7287449392713"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.4412955465587"/>
+    <col collapsed="false" hidden="false" max="27" min="6" style="0" width="7.21862348178138"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="15.668016194332"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
